--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -151,250 +151,373 @@
     <t xml:space="preserve">compiled</t>
   </si>
   <si>
+    <t xml:space="preserve">fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[160,160,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[220,220,110]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[64,96,128,160,256]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48,64,96,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgbg_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[None,tumour]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake_tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,1.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute value shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25],[.25,.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_monai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0.785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20,0.2,0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate worsens dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,0.15,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples_per_file</t>
+  </si>
+  <si>
     <t xml:space="preserve">src_dest_labels</t>
   </si>
   <si>
-    <t xml:space="preserve">fold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_dims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[160,160,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[220,220,110]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgbg_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[None,tumour]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4,2,2,2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake_tumours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cache_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,1.3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute value shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25],[.25,.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_monai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotate_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20,0.2,0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate worsens dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,0.15,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodesthick,nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lm_groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8,.8,1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg_indices_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_overlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_patch</t>
+    <t xml:space="preserve">[(1, 0),
+ (2, 0),
+ (83, 0),
+ (8, 0),
+ (52, 0),
+ (92, 0),
+ (90, 0),
+ (91, 0),
+ (3, 0),
+ (5, 0),
+ (6, 0),
+ (7, 0),
+ (12, 0),
+ (13, 0),
+ (33, 0),
+ (34, 0),
+ (35, 0),
+ (36, 0),
+ (51, 0),
+ (53, 0),
+ (87, 0),
+ (88, 0),
+ (89, 0),
+ (11, 1),
+ (15, 1),
+ (18, 1),
+ (21, 1),
+ (82, 1),
+ (86, 1),
+ (50, 1),
+ (4, 2),
+ (28, 2),
+ (44, 3),
+ (9, 4),
+ (10, 4),
+ (14, 4),
+ (19, 4),
+ (20, 4),
+ (29, 4),
+ (30, 4),
+ (31, 4),
+ (32, 4),
+ (39, 4),
+ (54, 4),
+ (55, 4),
+ (56, 4),
+ (57, 4),
+ (58, 4),
+ (59, 4),
+ (60, 4),
+ (61, 4),
+ (62, 4),
+ (63, 4),
+ (64, 4),
+ (65, 4),
+ (66, 4),
+ (67, 4),
+ (68, 4),
+ (69, 4),
+ (70, 4),
+ (71, 4),
+ (72, 4),
+ (73, 4),
+ (74, 4),
+ (75, 4),
+ (76, 4),
+ (77, 4),
+ (78, 4),
+ (79, 4),
+ (80, 4),
+ (81, 4),
+ (85, 4),
+ (93, 4),
+ (94, 4),
+ (95, 4),
+ (96, 4),
+ (97, 4),
+ (98, 4),
+ (99, 4),
+ (100, 4),
+ (101, 4),
+ (102, 4),
+ (103, 4),
+ (104, 4),
+ (105, 4),
+ (106, 4),
+ (107, 4),
+ (108, 4),
+ (109, 4),
+ (110, 4),
+ (111, 4),
+ (112, 4),
+ (113, 4),
+ (114, 4),
+ (115, 4),
+ (116, 4),
+ (117, 4),
+ (16, 6),
+ (17, 6),
+ (22, 6),
+ (23, 6),
+ (24, 6),
+ (25, 6),
+ (26, 6),
+ (27, 6),
+ (37, 6),
+ (38, 6),
+ (40, 5),
+ (41, 5),
+ (42, 5),
+ (43, 5),
+ (45, 7),
+ (46, 7),
+ (47, 7),
+ (48, 7),
+ (49, 7),
+ (84, 8)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5,1.5,1.5</t>
   </si>
   <si>
     <t xml:space="preserve">spatial_size</t>
@@ -487,7 +610,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,6 +645,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -649,7 +780,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1006,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1047,35 +1178,37 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E4" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1085,48 +1218,52 @@
         <v>45</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1136,15 +1273,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1153,16 +1290,19 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>96</v>
+      <c r="E8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1171,11 +1311,9 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>60</v>
+      <c r="E9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,82 +1321,64 @@
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="0"/>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="0"/>
+      <c r="E12" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3" t="n">
+      <c r="B13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1279,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1303,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1317,119 +1437,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1440,55 +1560,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1498,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1529,7 +1649,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1559,66 +1679,66 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1631,13 +1751,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1665,7 +1785,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1693,24 +1813,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1719,7 +1839,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1731,19 +1851,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1774,10 +1894,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1808,71 +1928,69 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="0"/>
+        <v>111</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="0"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="0"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1890,24 +2008,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="54.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="65.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1923,46 +2042,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" s="6" customFormat="true" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">compiled</t>
   </si>
   <si>
+    <t xml:space="preserve">src_dest_labels</t>
+  </si>
+  <si>
     <t xml:space="preserve">fold</t>
   </si>
   <si>
@@ -364,6 +367,9 @@
     <t xml:space="preserve">datasources</t>
   </si>
   <si>
+    <t xml:space="preserve">nodesthick,nodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">lm_groups</t>
   </si>
   <si>
@@ -389,135 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">expand_by_patch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samples_per_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_dest_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[(1, 0),
- (2, 0),
- (83, 0),
- (8, 0),
- (52, 0),
- (92, 0),
- (90, 0),
- (91, 0),
- (3, 0),
- (5, 0),
- (6, 0),
- (7, 0),
- (12, 0),
- (13, 0),
- (33, 0),
- (34, 0),
- (35, 0),
- (36, 0),
- (51, 0),
- (53, 0),
- (87, 0),
- (88, 0),
- (89, 0),
- (11, 1),
- (15, 1),
- (18, 1),
- (21, 1),
- (82, 1),
- (86, 1),
- (50, 1),
- (4, 2),
- (28, 2),
- (44, 3),
- (9, 4),
- (10, 4),
- (14, 4),
- (19, 4),
- (20, 4),
- (29, 4),
- (30, 4),
- (31, 4),
- (32, 4),
- (39, 4),
- (54, 4),
- (55, 4),
- (56, 4),
- (57, 4),
- (58, 4),
- (59, 4),
- (60, 4),
- (61, 4),
- (62, 4),
- (63, 4),
- (64, 4),
- (65, 4),
- (66, 4),
- (67, 4),
- (68, 4),
- (69, 4),
- (70, 4),
- (71, 4),
- (72, 4),
- (73, 4),
- (74, 4),
- (75, 4),
- (76, 4),
- (77, 4),
- (78, 4),
- (79, 4),
- (80, 4),
- (81, 4),
- (85, 4),
- (93, 4),
- (94, 4),
- (95, 4),
- (96, 4),
- (97, 4),
- (98, 4),
- (99, 4),
- (100, 4),
- (101, 4),
- (102, 4),
- (103, 4),
- (104, 4),
- (105, 4),
- (106, 4),
- (107, 4),
- (108, 4),
- (109, 4),
- (110, 4),
- (111, 4),
- (112, 4),
- (113, 4),
- (114, 4),
- (115, 4),
- (116, 4),
- (117, 4),
- (16, 6),
- (17, 6),
- (22, 6),
- (23, 6),
- (24, 6),
- (25, 6),
- (26, 6),
- (27, 6),
- (37, 6),
- (38, 6),
- (40, 5),
- (41, 5),
- (42, 5),
- (43, 5),
- (45, 7),
- (46, 7),
- (47, 7),
- (48, 7),
- (49, 7),
- (84, 8)]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5,1.5,1.5</t>
   </si>
   <si>
     <t xml:space="preserve">spatial_size</t>
@@ -610,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -645,14 +522,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -780,7 +649,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1137,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,37 +1047,35 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1218,52 +1085,48 @@
         <v>45</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1273,15 +1136,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1290,19 +1153,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>59</v>
+      <c r="E8" s="3" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1311,9 +1171,11 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,64 +1183,82 @@
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1399,7 +1279,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1423,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1437,119 +1317,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1560,55 +1440,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1618,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1649,7 +1529,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1679,33 +1559,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1715,30 +1595,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1751,13 +1631,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1785,7 +1665,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1813,24 +1693,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1839,7 +1719,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1851,19 +1731,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1894,10 +1774,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1928,69 +1808,71 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
       </c>
+      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2008,25 +1890,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="54.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="65.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2042,73 +1923,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -367,9 +367,6 @@
     <t xml:space="preserve">datasources</t>
   </si>
   <si>
-    <t xml:space="preserve">nodesthick,nodes</t>
-  </si>
-  <si>
     <t xml:space="preserve">lm_groups</t>
   </si>
   <si>
@@ -404,6 +401,15 @@
   </si>
   <si>
     <t xml:space="preserve">whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan1</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,6 +527,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1219,15 +1229,15 @@
       <c r="B12" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C12" s="0"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="0"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -1777,7 +1787,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,69 +1820,59 @@
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="0"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1893,7 +1893,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1931,23 +1931,23 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1959,7 +1959,20 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -367,6 +367,9 @@
     <t xml:space="preserve">datasources</t>
   </si>
   <si>
+    <t xml:space="preserve">total_seg</t>
+  </si>
+  <si>
     <t xml:space="preserve">lm_groups</t>
   </si>
   <si>
@@ -388,10 +391,7 @@
     <t xml:space="preserve">source</t>
   </si>
   <si>
-    <t xml:space="preserve">patch_overlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_patch</t>
+    <t xml:space="preserve">TSL.label_localiser</t>
   </si>
   <si>
     <t xml:space="preserve">spatial_size</t>
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1820,25 +1820,27 @@
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1846,33 +1848,23 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1893,7 +1885,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1931,50 +1923,57 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -190,207 +190,201 @@
     <t xml:space="preserve">[256,256,128]</t>
   </si>
   <si>
+    <t xml:space="preserve">fgbg_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[None,tumour]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake_tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,1.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute value shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25],[.25,.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_monai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0.785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20,0.2,0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate worsens dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,0.15,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_seg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_dim0</t>
   </si>
   <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
     <t xml:space="preserve">patch_dim1</t>
   </si>
   <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgbg_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[None,tumour]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4,2,2,2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake_tumours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cache_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,1.3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute value shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25],[.25,.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_monai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotate_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20,0.2,0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate worsens dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,0.15,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_seg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lm_groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8,.8,1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg_indices_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSL.label_localiser</t>
   </si>
   <si>
@@ -401,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">whole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by</t>
   </si>
   <si>
     <t xml:space="preserve">source_plan</t>
@@ -493,7 +484,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,10 +518,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1004,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,48 +1118,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>96</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1185,12 +1136,12 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1207,13 +1158,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C11" s="0"/>
       <c r="D11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1221,39 +1173,41 @@
       <c r="E11" s="1" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
@@ -1313,13 +1267,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1327,119 +1281,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1450,55 +1404,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1508,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1569,33 +1523,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1605,30 +1559,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1641,13 +1595,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1703,24 +1657,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1729,7 +1683,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1741,19 +1695,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1786,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1818,29 +1772,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1848,23 +1802,33 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1884,8 +1848,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1917,37 +1881,37 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>121</v>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1960,7 +1924,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.1</v>
@@ -1968,11 +1932,27 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSL.label_localiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatial_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96,96,96</t>
   </si>
   <si>
     <t xml:space="preserve">whole</t>
@@ -1139,7 +1133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1157,15 +1151,21 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="0"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -1173,12 +1173,9 @@
       <c r="E11" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="0"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1740,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1848,8 +1845,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,62 +1895,65 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>0.1</v>
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>96</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="G9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -641,7 +641,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A10 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,7 +998,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A10 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1153,10 +1153,10 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="0"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="A10 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A10 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A10 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,10 +1735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1825,6 +1825,11 @@
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1845,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A10 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -220,7 +220,13 @@
     <t xml:space="preserve">lmdb</t>
   </si>
   <si>
-    <t xml:space="preserve">plan</t>
+    <t xml:space="preserve">plan_train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the plan used to create validation dataset regardless of which plan training dataset is from. This ensures dice scores of validation ds are comparable across plans</t>
   </si>
   <si>
     <t xml:space="preserve">tune_p</t>
@@ -355,7 +361,7 @@
     <t xml:space="preserve">datasources</t>
   </si>
   <si>
-    <t xml:space="preserve">total_seg</t>
+    <t xml:space="preserve">totalseg</t>
   </si>
   <si>
     <t xml:space="preserve">lm_groups</t>
@@ -641,7 +647,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A10 A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,7 +1004,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A10 A7"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1210,7 +1216,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1218,6 +1224,17 @@
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1241,7 +1258,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="A10 G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1264,13 +1281,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1278,119 +1295,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1401,55 +1418,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1459,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1491,7 +1508,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A10 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1520,33 +1537,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1556,30 +1573,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1592,13 +1609,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1627,7 +1644,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A10 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1654,12 +1671,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1671,7 +1688,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1680,7 +1697,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1692,19 +1709,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1738,7 +1755,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1769,29 +1786,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1799,21 +1816,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>128</v>
@@ -1821,7 +1838,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>
@@ -1851,7 +1868,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A10 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,13 +1900,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,15 +1914,15 @@
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1918,7 +1935,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.1</v>
@@ -1926,15 +1943,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>96</v>
@@ -1947,7 +1964,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,6 +15,7 @@
     <sheet name="loss_params" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="plan1" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="plan2" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="plan3" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -401,6 +402,18 @@
   </si>
   <si>
     <t xml:space="preserve">plan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lits,drli,litq,litqsmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5, 1.5,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples_per_file</t>
   </si>
 </sst>
 </file>
@@ -646,7 +659,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1003,7 +1016,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1229,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1230,7 +1243,7 @@
         <v>65</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>66</v>
@@ -1257,7 +1270,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1520,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1643,7 +1656,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1767,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1867,8 +1880,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,4 +1999,126 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">plan1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lits,drli,litq,litqsmall</t>
   </si>
   <si>
     <t xml:space="preserve">1.5, 1.5,1.5</t>
@@ -659,7 +656,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1016,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1270,7 +1267,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1517,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +1653,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1767,7 +1764,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1880,8 +1877,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2006,10 +2003,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,9 +2035,7 @@
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,7 +2052,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2088,7 +2083,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2096,7 +2091,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
@@ -2110,7 +2105,21 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>96</v>
+      </c>
       <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -1013,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1919,15 +1919,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
@@ -1936,8 +1944,6 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2005,7 +2011,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -16,6 +16,7 @@
     <sheet name="plan1" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="plan2" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="plan3" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="plan4" sheetId="9" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -218,9 +219,6 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">lmdb</t>
-  </si>
-  <si>
     <t xml:space="preserve">plan_train</t>
   </si>
   <si>
@@ -411,6 +409,9 @@
   </si>
   <si>
     <t xml:space="preserve">samples_per_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1015,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,7 +1129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1145,11 +1146,16 @@
       <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="0"/>
       <c r="I9" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="1"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1167,11 +1173,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,18 +1218,18 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1237,13 +1240,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1291,13 +1294,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1305,119 +1308,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1428,55 +1431,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1486,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1547,66 +1550,66 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1619,13 +1622,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1681,12 +1684,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1707,7 +1710,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1719,19 +1722,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1765,7 +1768,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1796,29 +1799,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1826,21 +1829,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>128</v>
@@ -1848,7 +1851,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>
@@ -1878,7 +1881,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1910,13 +1913,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,23 +1927,23 @@
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
+        <v>120</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.1</v>
@@ -1959,15 +1962,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>96</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>
@@ -2039,14 +2042,14 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2086,10 +2089,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>96</v>
@@ -2121,7 +2124,141 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>96</v>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -17,6 +17,7 @@
     <sheet name="plan2" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="plan3" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="plan4" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="plan5" sheetId="10" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -412,6 +413,12 @@
   </si>
   <si>
     <t xml:space="preserve">1,1,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL.all,TSL.label_minimal</t>
   </si>
 </sst>
 </file>
@@ -1007,6 +1014,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1014,8 +1164,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1148,12 +1298,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="0"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="0"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -1229,7 +1379,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1243,7 +1393,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>65</v>
@@ -2146,10 +2296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2242,25 +2392,30 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="A9" s="0" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>96</v>
       </c>
     </row>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -1378,14 +1378,16 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="17.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="8" style="3" width="17.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="24.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="17.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,7 +1460,8 @@
         <v>140</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="M2" s="4" t="b">
+      <c r="M2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1488,7 +1491,8 @@
       <c r="K3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="4" t="b">
+      <c r="M3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1518,7 +1522,8 @@
       <c r="L4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4" t="b">
+      <c r="M4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1548,7 +1553,8 @@
       <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="4" t="b">
+      <c r="M5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -1581,7 +1587,8 @@
       <c r="L6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="M6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -1613,7 +1620,8 @@
       <c r="L7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="M7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="157">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -502,21 +502,6 @@
   </si>
   <si>
     <t xml:space="preserve">use_fg_indices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan6</t>
   </si>
 </sst>
 </file>
@@ -823,7 +808,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1145,7 +1130,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1262,7 +1247,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,7 +1364,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1441,8 +1426,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>144</v>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>129</v>
@@ -1472,8 +1457,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>157</v>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
@@ -1503,8 +1488,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>158</v>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1534,8 +1519,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>159</v>
+      <c r="A5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>149</v>
@@ -1565,8 +1550,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>160</v>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>149</v>
@@ -1599,8 +1584,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>161</v>
+      <c r="A7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>149</v>
@@ -1661,7 +1646,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A2:A7 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1870,7 +1855,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2107,7 +2092,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,7 +2215,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2323,7 +2308,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2430,7 +2415,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2532,7 +2517,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2641,7 +2626,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="159">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t xml:space="preserve">[256,256,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dim1</t>
   </si>
   <si>
     <t xml:space="preserve">fgbg_ratio</t>
@@ -808,7 +814,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1130,7 +1136,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,46 +1160,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -1201,10 +1207,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,18 +1220,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1253,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,46 +1277,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -1318,10 +1324,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,18 +1337,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1363,8 +1369,8 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,49 +1383,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
@@ -1430,19 +1436,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2"/>
       <c r="M2" s="4" t="n">
@@ -1450,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>4</v>
@@ -1464,24 +1470,24 @@
         <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>4</v>
@@ -1495,13 +1501,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2" t="s">
@@ -1512,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>4</v>
@@ -1523,16 +1529,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2" t="s">
@@ -1543,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>4</v>
@@ -1554,20 +1560,20 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>47</v>
@@ -1577,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>4</v>
@@ -1588,19 +1594,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>47</v>
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1645,13 +1651,14 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="A2:A7 E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,12 +1760,28 @@
         <v>70</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>128</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1770,12 +1793,12 @@
         <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
@@ -1792,48 +1815,48 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1878,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1871,13 +1894,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1888,114 +1911,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.1</v>
@@ -2006,53 +2029,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -2061,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -2092,7 +2115,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,32 +2137,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2148,29 +2171,29 @@
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -2181,19 +2204,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2238,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2237,12 +2260,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2250,7 +2273,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -2258,7 +2281,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2269,18 +2292,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2308,7 +2331,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2335,28 +2358,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2364,31 +2387,31 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,7 +2438,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,12 +2465,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,20 +2478,20 @@
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -2476,26 +2499,26 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2517,7 +2540,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2541,25 +2564,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2567,20 +2590,20 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -2593,18 +2616,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2649,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2650,46 +2673,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
@@ -2697,7 +2720,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,18 +2730,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t xml:space="preserve">use_fg_indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL.all,TSL.label_localiser</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -1651,14 +1654,14 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">qloguniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
   </si>
   <si>
     <t xml:space="preserve">0.0005</t>
@@ -517,9 +514,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -601,7 +599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,11 +612,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,8 +818,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -941,19 +943,19 @@
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -962,49 +964,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1013,23 +1015,23 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1040,27 +1042,27 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1071,10 +1073,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1105,10 +1107,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1163,78 +1165,78 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1280,78 +1282,78 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1372,63 +1374,63 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="17.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="17.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="24.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="17.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="4" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="24.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="17.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
@@ -1439,27 +1441,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>4</v>
@@ -1470,27 +1472,27 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="M3" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>4</v>
@@ -1501,27 +1503,27 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>4</v>
@@ -1532,27 +1534,27 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>4</v>
@@ -1563,30 +1565,30 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>4</v>
@@ -1597,29 +1599,29 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>4</v>
@@ -1660,8 +1662,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1681,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1693,15 +1695,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -1709,82 +1711,82 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>192</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>128</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1793,18 +1795,18 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1813,53 +1815,53 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1897,13 +1899,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1914,171 +1916,171 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -2087,10 +2089,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.1</v>
@@ -2140,86 +2142,86 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2263,12 +2265,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2276,7 +2278,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -2284,7 +2286,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2295,18 +2297,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2361,65 +2363,65 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2468,60 +2470,60 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2567,70 +2569,70 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2676,75 +2678,75 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="159">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -279,15 +279,12 @@
     <t xml:space="preserve">ds_type</t>
   </si>
   <si>
-    <t xml:space="preserve">plan_train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">plan_valid</t>
   </si>
   <si>
+    <t xml:space="preserve">plan_test</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is the plan used to create validation dataset regardless of which plan training dataset is from. This ensures dice scores of validation ds are comparable across plans</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve">use_fg_indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodict_test</t>
   </si>
   <si>
     <t xml:space="preserve">TSL.all,TSL.label_localiser</t>
@@ -818,7 +818,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1165,46 +1165,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,18 +1225,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1282,46 +1282,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,18 +1342,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +1372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1388,72 +1388,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2"/>
       <c r="M2" s="5" t="n">
@@ -1461,11 +1465,15 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -1475,28 +1483,31 @@
         <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="M3" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1506,13 +1517,13 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2" t="s">
@@ -1523,27 +1534,31 @@
         <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2" t="s">
@@ -1554,31 +1569,35 @@
         <v>1</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>46</v>
@@ -1588,30 +1607,34 @@
         <v>1</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>46</v>
@@ -1621,11 +1644,15 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -1637,6 +1664,8 @@
       <c r="I8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1654,10 +1683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,21 +1878,18 @@
       <c r="A14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1899,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1916,114 +1942,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.1</v>
@@ -2034,53 +2060,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -2089,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -2142,32 +2168,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -2176,29 +2202,29 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -2209,13 +2235,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2265,12 +2291,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2278,7 +2304,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -2286,7 +2312,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -2297,18 +2323,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2363,28 +2389,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -2392,31 +2418,31 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,12 +2496,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2483,20 +2509,20 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>38</v>
@@ -2504,26 +2530,26 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2569,25 +2595,25 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -2595,20 +2621,20 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -2621,18 +2647,18 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2678,46 +2704,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -2725,7 +2751,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,18 +2761,18 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_totalseg.xlsx
+++ b/configurations/experiment_configs_totalseg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remapping_imported</t>
   </si>
   <si>
     <t xml:space="preserve">remapping_source</t>
@@ -819,7 +822,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="I:I E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1258,7 +1261,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1372,18 +1375,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="4" width="17.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="24.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="17.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="24.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="4" width="17.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,27 +1423,30 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -1459,21 +1467,21 @@
       <c r="H2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="M2" s="5" t="n">
+      <c r="J2" s="2"/>
+      <c r="N2" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -1491,23 +1499,24 @@
       <c r="H3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="J3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -1525,24 +1534,24 @@
       <c r="H4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="N4" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -1561,23 +1570,24 @@
         <v>140</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="N5" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="Q5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1595,27 +1605,27 @@
       <c r="H6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="N6" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1633,26 +1643,26 @@
       <c r="H7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="N7" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="Q7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -1661,11 +1671,14 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1685,8 +1698,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="I:I E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1909,7 +1922,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2146,7 +2159,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2269,7 +2282,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2362,7 +2375,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2469,7 +2482,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2571,7 +2584,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2680,7 +2693,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
